--- a/Docs/task06/Backlog.xlsx
+++ b/Docs/task06/Backlog.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{00600CE3-59FB-4FA8-A65A-870764936945}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{18387C72-6A1A-4030-B86F-D27D35064DC1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9984" windowHeight="5052" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <oleSize ref="A1:L20"/>
+  <oleSize ref="A1:F10"/>
 </workbook>
 </file>
 
@@ -640,17 +640,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -658,7 +658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -666,7 +666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -674,7 +674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -682,7 +682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -690,7 +690,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -698,7 +698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -719,19 +719,19 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" customWidth="1"/>
+    <col min="2" max="2" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.26171875" customWidth="1"/>
+    <col min="4" max="4" width="7.26171875" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" customWidth="1"/>
+    <col min="6" max="6" width="13.15625" customWidth="1"/>
+    <col min="7" max="7" width="10.15625" customWidth="1"/>
+    <col min="8" max="8" width="14.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -823,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -851,29 +851,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.68359375" customWidth="1"/>
+    <col min="2" max="2" width="6.26171875" customWidth="1"/>
+    <col min="3" max="3" width="12.68359375" customWidth="1"/>
+    <col min="4" max="4" width="19.41796875" customWidth="1"/>
+    <col min="5" max="5" width="13.83984375" customWidth="1"/>
+    <col min="6" max="6" width="10.26171875" customWidth="1"/>
+    <col min="7" max="7" width="9.68359375" customWidth="1"/>
+    <col min="8" max="8" width="8.26171875" customWidth="1"/>
+    <col min="9" max="9" width="7.83984375" customWidth="1"/>
+    <col min="10" max="10" width="9.15625" customWidth="1"/>
+    <col min="11" max="11" width="7.26171875" customWidth="1"/>
+    <col min="12" max="12" width="15.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -911,12 +911,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -949,12 +949,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -981,7 +981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1014,9 +1014,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1046,12 +1046,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -1076,6 +1076,86 @@
       </c>
       <c r="L6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -1091,14 +1171,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" customWidth="1"/>
+    <col min="4" max="4" width="14.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -1112,7 +1192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1126,7 +1206,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>

--- a/Docs/task06/Backlog.xlsx
+++ b/Docs/task06/Backlog.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{18387C72-6A1A-4030-B86F-D27D35064DC1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\git\ch.bfh.bti7081.s2018.blue\Docs\task06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4084F-ACA8-4204-B572-2F2D1F842F1E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9984" windowHeight="5052" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="6885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -14,12 +19,11 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <oleSize ref="A1:F10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -57,27 +61,6 @@
     <t>cancelled</t>
   </si>
   <si>
-    <t>100h</t>
-  </si>
-  <si>
-    <t>200h</t>
-  </si>
-  <si>
-    <t>400h</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>450h</t>
-  </si>
-  <si>
-    <t>40h</t>
-  </si>
-  <si>
-    <t>180h</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -120,33 +103,15 @@
     <t>Patient Model</t>
   </si>
   <si>
-    <t>Admit new patient</t>
-  </si>
-  <si>
     <t>Data model for patient record needs to be created based on standard....</t>
   </si>
   <si>
-    <t>a new patient makes contact on reference from Dr. Boehm. After creating a new patient record, the medical history...</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
     <t>Effort Plan Updated</t>
   </si>
   <si>
-    <t>0h</t>
-  </si>
-  <si>
-    <t>50h</t>
-  </si>
-  <si>
-    <t>350h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -199,6 +164,48 @@
   </si>
   <si>
     <t>Sinthujah Kaneshan Balasubramaniam</t>
+  </si>
+  <si>
+    <t>Recipe Order</t>
+  </si>
+  <si>
+    <t>User can order a prescription for a medicament. If approved the user can dowload the prescription and print it @ home</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>User can inform himself about his relatives desease and has helpful links provided</t>
+  </si>
+  <si>
+    <t>User can view the MainView and further navigate to other MenuPoints</t>
+  </si>
+  <si>
+    <t>User can enter a Chatroom where he can chat with other Users about his situation</t>
+  </si>
+  <si>
+    <t>Mainview</t>
+  </si>
+  <si>
+    <t>Chatroom</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>User can view a weekly activity calendar of his relatives and edit/add tasks</t>
+  </si>
+  <si>
+    <t>Userlogin</t>
+  </si>
+  <si>
+    <t>User can login with a registered account of himself</t>
+  </si>
+  <si>
+    <t>User can dowload stored files from the patient or the doctor (e.g. Recipes, Drawings)</t>
+  </si>
+  <si>
+    <t>File</t>
   </si>
 </sst>
 </file>
@@ -641,69 +648,69 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.578125" customWidth="1"/>
+    <col min="1" max="1" width="35.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -713,30 +720,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.26171875" customWidth="1"/>
-    <col min="4" max="4" width="7.26171875" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" customWidth="1"/>
-    <col min="6" max="6" width="13.15625" customWidth="1"/>
-    <col min="7" max="7" width="10.15625" customWidth="1"/>
-    <col min="8" max="8" width="14.41796875" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.265625" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -745,102 +752,141 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E9">
+        <f>SUM(E2:E8)</f>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -851,34 +897,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.68359375" customWidth="1"/>
-    <col min="2" max="2" width="6.26171875" customWidth="1"/>
-    <col min="3" max="3" width="12.68359375" customWidth="1"/>
-    <col min="4" max="4" width="19.41796875" customWidth="1"/>
-    <col min="5" max="5" width="13.83984375" customWidth="1"/>
-    <col min="6" max="6" width="10.26171875" customWidth="1"/>
-    <col min="7" max="7" width="9.68359375" customWidth="1"/>
-    <col min="8" max="8" width="8.26171875" customWidth="1"/>
-    <col min="9" max="9" width="7.83984375" customWidth="1"/>
-    <col min="10" max="10" width="9.15625" customWidth="1"/>
-    <col min="11" max="11" width="7.26171875" customWidth="1"/>
-    <col min="12" max="12" width="15.26171875" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="6.265625" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" customWidth="1"/>
+    <col min="8" max="8" width="8.265625" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="11" max="11" width="7.265625" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -887,51 +933,51 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -949,21 +995,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -981,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -989,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -1014,21 +1060,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -1046,21 +1092,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -1076,86 +1122,6 @@
       </c>
       <c r="L6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -1171,28 +1137,28 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" customWidth="1"/>
-    <col min="4" max="4" width="14.26171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1206,7 +1172,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>

--- a/Docs/task06/Backlog.xlsx
+++ b/Docs/task06/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\git\ch.bfh.bti7081.s2018.blue\Docs\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4084F-ACA8-4204-B572-2F2D1F842F1E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D951A3B-38D2-4161-8760-99552BF5A0FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="6885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="6885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -52,15 +52,6 @@
     <t>waiting</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -76,36 +67,6 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>UI, Controller</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -206,6 +167,69 @@
   </si>
   <si>
     <t>File</t>
+  </si>
+  <si>
+    <t>MainView</t>
+  </si>
+  <si>
+    <t>TaskView</t>
+  </si>
+  <si>
+    <t>A View of Task with related Files added and Edit Button</t>
+  </si>
+  <si>
+    <t>A List of all Days with Tasks and a add Task Button</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>Sinthya</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Create MainView with Buttons and Links to other Views</t>
+  </si>
+  <si>
+    <t>ChatView</t>
+  </si>
+  <si>
+    <t>Create the Barebone of ChatBox</t>
+  </si>
+  <si>
+    <t>ChatRoom</t>
+  </si>
+  <si>
+    <t>Synthia</t>
+  </si>
+  <si>
+    <t>OrderView</t>
+  </si>
+  <si>
+    <t>A View for the Order of Recipes</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>View of Recipes</t>
+  </si>
+  <si>
+    <t>A View of owned Recipes</t>
+  </si>
+  <si>
+    <t>CalendarView</t>
   </si>
 </sst>
 </file>
@@ -662,55 +686,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -722,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -743,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -752,13 +776,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -769,10 +793,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>40</v>
@@ -786,10 +813,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -803,10 +833,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -820,10 +853,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
       <c r="E5">
         <v>35</v>
@@ -837,10 +873,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -854,10 +893,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -871,10 +913,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
       <c r="E8">
         <v>35</v>
@@ -897,18 +942,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.73046875" customWidth="1"/>
     <col min="2" max="2" width="6.265625" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.1328125" customWidth="1"/>
     <col min="5" max="5" width="13.86328125" customWidth="1"/>
     <col min="6" max="6" width="10.265625" customWidth="1"/>
     <col min="7" max="7" width="9.73046875" customWidth="1"/>
@@ -924,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -933,195 +978,220 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
         <v>8</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
         <v>8</v>
       </c>
-      <c r="J6">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1.7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="I7">
         <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1146,16 +1216,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">

--- a/Docs/task06/Backlog.xlsx
+++ b/Docs/task06/Backlog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\git\ch.bfh.bti7081.s2018.blue\Docs\task06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D951A3B-38D2-4161-8760-99552BF5A0FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="6885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21400" windowHeight="13180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,12 +12,17 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -230,12 +229,69 @@
   </si>
   <si>
     <t>CalendarView</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>LoginView</t>
+  </si>
+  <si>
+    <t>LoginModel</t>
+  </si>
+  <si>
+    <t>LoginLogic</t>
+  </si>
+  <si>
+    <t>Implementation of Login View</t>
+  </si>
+  <si>
+    <t>Create Login Models for DB</t>
+  </si>
+  <si>
+    <t>Logic for Login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>DB Structure JPA</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Order Logic</t>
+  </si>
+  <si>
+    <t>Connect DB to Order write read</t>
+  </si>
+  <si>
+    <t>Calendar Logic</t>
+  </si>
+  <si>
+    <t>Connect DB to calendar write read</t>
+  </si>
+  <si>
+    <t>Task Logic</t>
+  </si>
+  <si>
+    <t>Connect DB to Tasks write read</t>
+  </si>
+  <si>
+    <t>Information View</t>
+  </si>
+  <si>
+    <t>Implement View for Information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +388,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{83177F51-6318-4BA4-A052-4F2A77A445D2}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -391,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,20 +724,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -697,7 +753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -705,7 +761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -713,7 +769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -721,7 +777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -729,7 +785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -739,30 +795,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" customWidth="1"/>
-    <col min="2" max="2" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.265625" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -788,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -808,7 +869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -828,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -848,7 +909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -868,7 +929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -888,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -908,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -928,7 +989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="E9">
         <f>SUM(E2:E8)</f>
         <v>180</v>
@@ -936,35 +997,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" customWidth="1"/>
-    <col min="2" max="2" width="6.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.1328125" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" customWidth="1"/>
-    <col min="8" max="8" width="8.265625" customWidth="1"/>
-    <col min="9" max="9" width="7.86328125" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" customWidth="1"/>
-    <col min="11" max="11" width="7.265625" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="42">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1030,11 +1096,14 @@
       <c r="I2">
         <v>9</v>
       </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
       <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1062,11 +1131,14 @@
       <c r="I3">
         <v>9</v>
       </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
       <c r="L3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1.4</v>
       </c>
@@ -1094,11 +1166,14 @@
       <c r="I4">
         <v>9</v>
       </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
       <c r="L4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -1126,11 +1201,14 @@
       <c r="I5">
         <v>9</v>
       </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
       <c r="L5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1.6</v>
       </c>
@@ -1158,11 +1236,14 @@
       <c r="I6">
         <v>9</v>
       </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
       <c r="L6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1.7</v>
       </c>
@@ -1190,31 +1271,268 @@
       <c r="I7">
         <v>9</v>
       </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>2.1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>2.4</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>2.5</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>2.6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>2.7</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>2.8</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -1228,7 +1546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1242,7 +1560,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1258,6 +1576,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>